--- a/bitbloq/_toolbox/Gantt.xlsx
+++ b/bitbloq/_toolbox/Gantt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>Entender que es un algoritmo y sus partes principales.</t>
   </si>
@@ -220,12 +220,30 @@
   <si>
     <t>Análisis del problema y Diseño</t>
   </si>
+  <si>
+    <t>Sesión I</t>
+  </si>
+  <si>
+    <t>Sesión II</t>
+  </si>
+  <si>
+    <t>Sesión III</t>
+  </si>
+  <si>
+    <t>Sesión IV</t>
+  </si>
+  <si>
+    <t>Sesión V</t>
+  </si>
+  <si>
+    <t>Sesión VI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,10 +292,6 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -466,7 +480,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,8 +556,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -699,12 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -718,17 +748,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -766,6 +795,17 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -803,6 +843,17 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="84">
@@ -18963,8 +19014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C71"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:AZ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18992,61 +19043,61 @@
       <c r="AZ1" s="18"/>
     </row>
     <row r="2" spans="1:91">
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
+      <c r="E2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:91" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="58"/>
@@ -19154,11 +19205,11 @@
     </row>
     <row r="4" spans="1:91" s="4" customFormat="1" ht="20">
       <c r="A4" s="8"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72">
         <f>SUM(D5+D19+D25+D6)</f>
         <v>240</v>
       </c>
@@ -19253,7 +19304,7 @@
     <row r="5" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A5" s="18"/>
       <c r="B5" s="43"/>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="69" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="49">
@@ -19358,7 +19409,7 @@
       <c r="C6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="69">
         <f>SUM(D7:D18)</f>
         <v>110</v>
       </c>
@@ -20673,7 +20724,7 @@
     <row r="19" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="69" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="49">
@@ -21223,7 +21274,7 @@
     <row r="25" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="49">
@@ -21386,7 +21437,7 @@
         <v>62</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -21412,7 +21463,7 @@
       <c r="AA27" s="42"/>
       <c r="AB27" s="42"/>
       <c r="AC27" s="42" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="AD27" s="42"/>
       <c r="AE27" s="42"/>
@@ -21503,11 +21554,11 @@
       <c r="AZ28" s="40"/>
     </row>
     <row r="29" spans="1:91" ht="20">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76">
+      <c r="C29" s="74"/>
+      <c r="D29" s="75">
         <f>SUM(D30+D44+D50)</f>
         <v>240</v>
       </c>
@@ -21563,7 +21614,7 @@
     <row r="30" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A30" s="18"/>
       <c r="B30" s="43"/>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="69" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="49">
@@ -22741,7 +22792,7 @@
     <row r="44" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="69" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="49">
@@ -23291,7 +23342,7 @@
     <row r="50" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="49">
@@ -23453,7 +23504,7 @@
         <v>62</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -23479,7 +23530,7 @@
       <c r="AA52" s="42"/>
       <c r="AB52" s="42"/>
       <c r="AC52" s="42" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="AD52" s="42"/>
       <c r="AE52" s="42"/>
@@ -23570,11 +23621,11 @@
       <c r="AZ53" s="40"/>
     </row>
     <row r="54" spans="1:91" ht="20">
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="70">
+      <c r="C54" s="74"/>
+      <c r="D54" s="73">
         <f>SUM(D55+D72+D78)</f>
         <v>225</v>
       </c>
@@ -23630,7 +23681,7 @@
     <row r="55" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A55" s="18"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="69" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="49">
@@ -25032,7 +25083,7 @@
     <row r="72" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="69" t="s">
         <v>58</v>
       </c>
       <c r="D72" s="49">
@@ -25578,7 +25629,7 @@
     <row r="78" spans="1:91" s="48" customFormat="1" ht="18">
       <c r="A78" s="18"/>
       <c r="B78" s="25"/>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="69" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="49">
